--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N2">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O2">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P2">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q2">
-        <v>10.17487789527016</v>
+        <v>344.1532043933784</v>
       </c>
       <c r="R2">
-        <v>61.04926737162099</v>
+        <v>2064.91922636027</v>
       </c>
       <c r="S2">
-        <v>0.02667951200101175</v>
+        <v>0.222124569984839</v>
       </c>
       <c r="T2">
-        <v>0.02002834701449002</v>
+        <v>0.1640874300564537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N3">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O3">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P3">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q3">
-        <v>90.53100744841048</v>
+        <v>2.826170415454167</v>
       </c>
       <c r="R3">
-        <v>543.1860446904628</v>
+        <v>16.957022492725</v>
       </c>
       <c r="S3">
-        <v>0.2373810402979208</v>
+        <v>0.001824076836196121</v>
       </c>
       <c r="T3">
-        <v>0.1782022793208175</v>
+        <v>0.001347478490548603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,40 +673,40 @@
         <v>187.223767</v>
       </c>
       <c r="I4">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J4">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N4">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O4">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P4">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q4">
-        <v>3.255051610421222</v>
+        <v>118.3391088816318</v>
       </c>
       <c r="R4">
-        <v>29.295464493791</v>
+        <v>1065.051979934686</v>
       </c>
       <c r="S4">
-        <v>0.008535059525826352</v>
+        <v>0.07637884330920167</v>
       </c>
       <c r="T4">
-        <v>0.009610921704607806</v>
+        <v>0.08463364572960268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J5">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N5">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O5">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P5">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q5">
-        <v>28.961831740997</v>
+        <v>0.9717953639338889</v>
       </c>
       <c r="R5">
-        <v>260.656485668973</v>
+        <v>8.746158275405</v>
       </c>
       <c r="S5">
-        <v>0.07594071844974173</v>
+        <v>0.0006272195771286224</v>
       </c>
       <c r="T5">
-        <v>0.08551320550297734</v>
+        <v>0.00069500763805073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H6">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I6">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J6">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N6">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O6">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P6">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q6">
-        <v>7.451354382220222</v>
+        <v>326.1459929416122</v>
       </c>
       <c r="R6">
-        <v>67.06218943998199</v>
+        <v>2935.31393647451</v>
       </c>
       <c r="S6">
-        <v>0.01953817045378483</v>
+        <v>0.2105022923210295</v>
       </c>
       <c r="T6">
-        <v>0.02200099787405137</v>
+        <v>0.2332527655786188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H7">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I7">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J7">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N7">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O7">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P7">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q7">
-        <v>66.29844859279399</v>
+        <v>2.678296016436111</v>
       </c>
       <c r="R7">
-        <v>596.6860373351459</v>
+        <v>24.104664147925</v>
       </c>
       <c r="S7">
-        <v>0.1738409318604351</v>
+        <v>0.001728635222187182</v>
       </c>
       <c r="T7">
-        <v>0.195753946426629</v>
+        <v>0.001915461070784213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H8">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I8">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J8">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N8">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O8">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P8">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q8">
-        <v>2.7652489857195</v>
+        <v>105.510944587813</v>
       </c>
       <c r="R8">
-        <v>16.591493914317</v>
+        <v>633.0656675268781</v>
       </c>
       <c r="S8">
-        <v>0.007250749764238824</v>
+        <v>0.06809924445298311</v>
       </c>
       <c r="T8">
-        <v>0.005443148000154567</v>
+        <v>0.05030614133249151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H9">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I9">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J9">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N9">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O9">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P9">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q9">
-        <v>24.6038113773585</v>
+        <v>0.8664510639275</v>
       </c>
       <c r="R9">
-        <v>147.622868264151</v>
+        <v>5.198706383565001</v>
       </c>
       <c r="S9">
-        <v>0.06451356838572028</v>
+        <v>0.0005592278890067052</v>
       </c>
       <c r="T9">
-        <v>0.04843042611586146</v>
+        <v>0.0004131117378382285</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H10">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I10">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J10">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N10">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O10">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P10">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q10">
-        <v>7.499429285827333</v>
+        <v>385.665066430862</v>
       </c>
       <c r="R10">
-        <v>67.49486357244599</v>
+        <v>3470.985597877758</v>
       </c>
       <c r="S10">
-        <v>0.01966422749161224</v>
+        <v>0.2489173017875228</v>
       </c>
       <c r="T10">
-        <v>0.02214294466624516</v>
+        <v>0.275819557127488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H11">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I11">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J11">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N11">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O11">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P11">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q11">
-        <v>66.72619519588199</v>
+        <v>3.167063932885</v>
       </c>
       <c r="R11">
-        <v>600.5357567629379</v>
+        <v>28.503575395965</v>
       </c>
       <c r="S11">
-        <v>0.1749625247432138</v>
+        <v>0.002044097527572254</v>
       </c>
       <c r="T11">
-        <v>0.1970169184478803</v>
+        <v>0.002265017621240476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H12">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I12">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J12">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05215766666666666</v>
+        <v>1.896219333333333</v>
       </c>
       <c r="N12">
-        <v>0.156473</v>
+        <v>5.688658</v>
       </c>
       <c r="O12">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="P12">
-        <v>0.1010355835763341</v>
+        <v>0.9918549325388253</v>
       </c>
       <c r="Q12">
-        <v>7.38640402203611</v>
+        <v>256.9362248137589</v>
       </c>
       <c r="R12">
-        <v>66.477636198325</v>
+        <v>2312.42602332383</v>
       </c>
       <c r="S12">
-        <v>0.0193678643398601</v>
+        <v>0.1658326806832492</v>
       </c>
       <c r="T12">
-        <v>0.02180922431678517</v>
+        <v>0.1837553927141704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H13">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I13">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J13">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.464073</v>
+        <v>0.01557166666666667</v>
       </c>
       <c r="N13">
-        <v>1.392219</v>
+        <v>0.046715</v>
       </c>
       <c r="O13">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174712</v>
       </c>
       <c r="P13">
-        <v>0.8989644164236659</v>
+        <v>0.008145067461174714</v>
       </c>
       <c r="Q13">
-        <v>65.72055256277498</v>
+        <v>2.109948557669445</v>
       </c>
       <c r="R13">
-        <v>591.484973064975</v>
+        <v>18.989537019025</v>
       </c>
       <c r="S13">
-        <v>0.1723256326866341</v>
+        <v>0.001361810409083827</v>
       </c>
       <c r="T13">
-        <v>0.1940476406095002</v>
+        <v>0.001508990902712462</v>
       </c>
     </row>
   </sheetData>
